--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">18-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-02-2020</t>
   </si>
 </sst>
 </file>
@@ -212,17 +215,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,6 +557,17 @@
       </c>
       <c r="C30" s="0" t="n">
         <v>1870</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>74280</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">19-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-02-2020</t>
   </si>
 </sst>
 </file>
@@ -215,17 +218,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,6 +571,17 @@
       </c>
       <c r="C31" s="0" t="n">
         <v>2006</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>74675</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2121</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">20-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-02-2020</t>
   </si>
 </sst>
 </file>
@@ -218,17 +221,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,6 +584,17 @@
       </c>
       <c r="C32" s="0" t="n">
         <v>2121</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>75569</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2239</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">21-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-02-2020</t>
   </si>
 </sst>
 </file>
@@ -221,16 +224,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,6 +599,17 @@
       </c>
       <c r="C33" s="0" t="n">
         <v>2239</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>76392</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2348</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">22-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-02-2020</t>
   </si>
 </sst>
 </file>
@@ -224,17 +227,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,6 +613,17 @@
       </c>
       <c r="C34" s="0" t="n">
         <v>2348</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>77042</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>2445</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">23-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-02-2020</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
@@ -235,9 +238,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,6 +627,17 @@
       </c>
       <c r="C35" s="0" t="n">
         <v>2445</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>77262</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2595</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">24-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-02-2020</t>
   </si>
 </sst>
 </file>
@@ -230,17 +233,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,6 +641,17 @@
       </c>
       <c r="C36" s="0" t="n">
         <v>2595</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>77780</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>2666</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">25-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-02-2020</t>
   </si>
 </sst>
 </file>
@@ -233,17 +236,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,6 +654,17 @@
       </c>
       <c r="C37" s="0" t="n">
         <v>2666</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>78191</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2718</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">26-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-02-2020</t>
   </si>
 </sst>
 </file>
@@ -236,16 +239,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,6 +669,17 @@
       </c>
       <c r="C38" s="0" t="n">
         <v>2718</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>78630</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2747</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">27-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-02-2020</t>
   </si>
 </sst>
 </file>
@@ -239,17 +242,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,6 +683,17 @@
       </c>
       <c r="C39" s="0" t="n">
         <v>2747</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>78961</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>2791</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -146,6 +146,33 @@
   </si>
   <si>
     <t xml:space="preserve">28-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-03-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-03-2020</t>
   </si>
 </sst>
 </file>
@@ -155,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,6 +203,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,8 +252,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,17 +278,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,6 +730,105 @@
       </c>
       <c r="C40" s="0" t="n">
         <v>2791</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>79394</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>79968</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>80174</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>80304</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>80422</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>80565</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>80711</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>80813</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>80859</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>3100</v>
       </c>
     </row>
   </sheetData>
